--- a/Material/Comandos Linux.xlsx
+++ b/Material/Comandos Linux.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFGS\Curso 20-21\ISO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFGS\Curso 20-21\ISO\Bloque 2 -Linux Básico-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Información Sistema" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
   <si>
     <t>COMANDO</t>
   </si>
@@ -320,6 +320,129 @@
   </si>
   <si>
     <t>Muestra una lista con los alias del sistema</t>
+  </si>
+  <si>
+    <t>Muestra el contenido de un archivo en pantalla (consola)</t>
+  </si>
+  <si>
+    <t>cat "nombre-archivo"</t>
+  </si>
+  <si>
+    <t>gdebi "nombre-programa".deb</t>
+  </si>
+  <si>
+    <t>instala programas sin tener que descomprimirlo</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Muestra la configuración de las tarjetas de red instaladas</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Muestra la puerta de enlace y la dirección de red, tambien muestra la propia ip loopback para cuando</t>
+  </si>
+  <si>
+    <t>no sale a internet</t>
+  </si>
+  <si>
+    <t>dmesg</t>
+  </si>
+  <si>
+    <t>Herramienta que lee e imprime los avisos del kernel, almacenados en /var/log/syslog</t>
+  </si>
+  <si>
+    <t>#cat /var/log/syslog</t>
+  </si>
+  <si>
+    <t>Muestra los mensajes de registro del sistema</t>
+  </si>
+  <si>
+    <t>#cat "ruta/nombre-archivo" | grep "nombre"</t>
+  </si>
+  <si>
+    <t>nos muestra solo los registros indicados</t>
+  </si>
+  <si>
+    <t>Ej: #cat /var/log/syslog | grep dhcp -&gt; Solo muestra las lineas de dhcp</t>
+  </si>
+  <si>
+    <t>touch "nombre"</t>
+  </si>
+  <si>
+    <t>Crea un archivo vacio</t>
+  </si>
+  <si>
+    <t>cat /proc/meminfo</t>
+  </si>
+  <si>
+    <t>Muestra informacion de la memoria en uso actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra la información de la CPU </t>
+  </si>
+  <si>
+    <t>cat /proc/cpuinfo</t>
+  </si>
+  <si>
+    <t>fdisk -l</t>
+  </si>
+  <si>
+    <t>Muestra informacion del disco duro y las particiones</t>
+  </si>
+  <si>
+    <t>mkdir "nombre"</t>
+  </si>
+  <si>
+    <t>Crea un directorio</t>
+  </si>
+  <si>
+    <t>echo "mensaje"</t>
+  </si>
+  <si>
+    <t>Muestra el mensaje indicado en pantalla</t>
+  </si>
+  <si>
+    <t>echo "hola" &gt; "nombre-del-archivo"</t>
+  </si>
+  <si>
+    <t>Introduce "hola" dentro del archivo indicado</t>
+  </si>
+  <si>
+    <t>Ej.: echo "hola" &gt; /home/usuario/Documentos/bienvenida.txt</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>Nos mueve a nuestro directorio de usuario (directorio personal)</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Nos mueve al directorio anterior</t>
+  </si>
+  <si>
+    <t>../../</t>
+  </si>
+  <si>
+    <t>nos va moviendo a los directorio anteriores</t>
+  </si>
+  <si>
+    <t>Ej.:usuario@debian:~/Documentos/prueba/prueba1$ cd ../../ -&gt; nos llevaria a usuario@debian:~/Documentos</t>
+  </si>
+  <si>
+    <t>Muestra un listado recursivo de los directorios y su contenido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -R</t>
   </si>
 </sst>
 </file>
@@ -709,17 +832,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="91.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="90.28515625" customWidth="1"/>
     <col min="4" max="4" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -739,134 +862,229 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C24" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D14">
+  <sortState ref="A2:D24">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -876,11 +1094,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -960,198 +1176,274 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C33" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D25">
+  <sortState ref="A2:D33">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Material/Comandos Linux.xlsx
+++ b/Material/Comandos Linux.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Información Sistema" sheetId="1" r:id="rId1"/>
     <sheet name="Administración Sistema" sheetId="2" r:id="rId2"/>
-    <sheet name="Herramientas" sheetId="3" r:id="rId3"/>
+    <sheet name="Direcciones" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="699">
   <si>
     <t>COMANDO</t>
   </si>
@@ -184,18 +184,6 @@
     <t>Muestra una lista del contenido del directorio</t>
   </si>
   <si>
-    <t>nano</t>
-  </si>
-  <si>
-    <t>Abre un editor de texto simple</t>
-  </si>
-  <si>
-    <t>vi</t>
-  </si>
-  <si>
-    <t>Abre un editor de texto más completo</t>
-  </si>
-  <si>
     <t>reboot</t>
   </si>
   <si>
@@ -409,9 +397,6 @@
     <t>Muestra el mensaje indicado en pantalla</t>
   </si>
   <si>
-    <t>echo "hola" &gt; "nombre-del-archivo"</t>
-  </si>
-  <si>
     <t>Introduce "hola" dentro del archivo indicado</t>
   </si>
   <si>
@@ -443,13 +428,1720 @@
   </si>
   <si>
     <t xml:space="preserve"> -R</t>
+  </si>
+  <si>
+    <t>Fichero que configura el arranque del sistema</t>
+  </si>
+  <si>
+    <t>cat .bashrc</t>
+  </si>
+  <si>
+    <t>Archivo de config. Donde podremos crear alias fijos y mensajes en promp con echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -la</t>
+  </si>
+  <si>
+    <t>Muestra los puntos de los directorios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ld</t>
+  </si>
+  <si>
+    <t>Muestra las caracteristicas del directorio indicado</t>
+  </si>
+  <si>
+    <t>ls -ld Descargas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -lt </t>
+  </si>
+  <si>
+    <t>Muestra el contenido del directorio ordenado por en el tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ltr</t>
+  </si>
+  <si>
+    <t>ls -lt Documentos/</t>
+  </si>
+  <si>
+    <t>ls -ltr Documentos/</t>
+  </si>
+  <si>
+    <t>Muestra el contenido del directorio ordenado por en el tiempo a la inversa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkdir </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -p /carpeta1/carpeta2/carpeta3</t>
+  </si>
+  <si>
+    <t>Crea todas las carpetas una dentro de otra (estilo muñeca rusa)</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ri "nombre-archivo"</t>
+  </si>
+  <si>
+    <t>Pregunta si queresmos borrarlo antes de borrarlo</t>
+  </si>
+  <si>
+    <t>rm -ri prueba.tmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -r*</t>
+  </si>
+  <si>
+    <t>Usar siempre con la propiedad  -ri ya que es muy facil que borremos cosas que no queremos borrar</t>
+  </si>
+  <si>
+    <r>
+      <t>Borra todos los archivos del directorio en el que estemos.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ¡¡PELIGRO!!</t>
+    </r>
+  </si>
+  <si>
+    <t>Realmente no borramos, sino que movemos a la carpeta /home/usuario/.local/share/trash/file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -f "nombre-archivo"</t>
+  </si>
+  <si>
+    <t>Fuerza el borrado del archivo</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Mueve los archivos de un directorio a otro</t>
+  </si>
+  <si>
+    <t>mv directorio-A/archivo.tmp directorio-B</t>
+  </si>
+  <si>
+    <t>También cambia el nombre de los archivos</t>
+  </si>
+  <si>
+    <t>mv directorio-A/archivo.tmp archivo2.tmp</t>
+  </si>
+  <si>
+    <t>wc "nombre-del-archivo"</t>
+  </si>
+  <si>
+    <t>Cuenta y muestra las lineas, palabras y caracteres que tiene el archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -n</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>Muestra el contenido del fichero y enumera sus lineas</t>
+  </si>
+  <si>
+    <t>cat -n "nombre_fichero"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "nombre_fichero" | less</t>
+  </si>
+  <si>
+    <t>Muestra el contenido del fichero de manera paginada</t>
+  </si>
+  <si>
+    <t>cat  "nombre_fichero" | less</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>"nombre_fichero"</t>
+  </si>
+  <si>
+    <t>Muestra las 10 primeras lineas superiores del fichero</t>
+  </si>
+  <si>
+    <t>head "nombre_fichero"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -n "numero de lineas" "nombre_fichero"</t>
+  </si>
+  <si>
+    <t>head -n 5 "nombre_fichero" o head -n 5 "nombre_fichero" | cat -n</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>Muestra las ultimas 10 lineas del fichero</t>
+  </si>
+  <si>
+    <t>tail "nombre_fichero"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -n "numero lineas" "nombre_fichero"</t>
+  </si>
+  <si>
+    <t>Muestra las lineas indicadas en -n, se puede combinar con cat -n</t>
+  </si>
+  <si>
+    <t>tail -n 5 "nombre_fichero" o tail -n 5 "nombre_fichero" | cat -n</t>
+  </si>
+  <si>
+    <t>Muestra las ultimas lineas indicadas en -n, se puede combinar con cat -n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff </t>
+  </si>
+  <si>
+    <t>"fichero1" "fichero2"</t>
+  </si>
+  <si>
+    <t>Compara 2 ficheros linea a linea e informa de las diferencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -w "fichero1" "fichero2"</t>
+  </si>
+  <si>
+    <t>Compara los 2 ficheros ignorando los espacios en blanco</t>
+  </si>
+  <si>
+    <t>diff -w "fichero1" "fichero2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -q "fichero1" "fichero2"</t>
+  </si>
+  <si>
+    <t>Compara los 2 ficheros, y solo nos informa de si son diferentes o no</t>
+  </si>
+  <si>
+    <t>diff -q "fichero1" "fichero2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -y "fichero1" "fichero2"</t>
+  </si>
+  <si>
+    <t>Muestra la salida con las diferencias amrcadas en 2 columnas</t>
+  </si>
+  <si>
+    <t>diff -y "fichero1" "fichero2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -i "fichero1" "fichero2"</t>
+  </si>
+  <si>
+    <t>diff -i "fichero1 "fichero2"</t>
+  </si>
+  <si>
+    <t>rmdir</t>
+  </si>
+  <si>
+    <t>Nos permite borrar directorios que esten vacios</t>
+  </si>
+  <si>
+    <t>Borra los directorio intermedio que este vacios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -r "nombre_directorio"</t>
+  </si>
+  <si>
+    <t>Borra el directorio aunque este lleno</t>
+  </si>
+  <si>
+    <t>rmdir  "nombre_directorio_vacio"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -i "nombre_directorio"</t>
+  </si>
+  <si>
+    <t>Nos pide confirmación antes de borrar</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /direccion_origen /direccion_destino"</t>
+  </si>
+  <si>
+    <t>Permite copiar archivos y directorios</t>
+  </si>
+  <si>
+    <t>rm -r "nombre_directorio"</t>
+  </si>
+  <si>
+    <t>rm -i "nombre_directorio"</t>
+  </si>
+  <si>
+    <t>cp /direccion_origen/directorio  /direccion_destino/directorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cp </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -R /di_origen /dir_destino</t>
+  </si>
+  <si>
+    <t>Nos permite copiar de forma recursiva el directorio y su contenido</t>
+  </si>
+  <si>
+    <t>cp -R /direccion_origen/archivos  /direccion_destino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nl </t>
+  </si>
+  <si>
+    <t>"nombre_archivo"</t>
+  </si>
+  <si>
+    <t>Muestra el archivo numerado</t>
+  </si>
+  <si>
+    <t>nl "nombre_archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |wc -l</t>
+  </si>
+  <si>
+    <t>Cuenta los ficheros y directorios que hay en un directorio</t>
+  </si>
+  <si>
+    <t>ls | wc -l /nombre_directorio</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Representa a un conjunto de 0 a mas caracteres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ?</t>
+  </si>
+  <si>
+    <t>Representa 1 caracter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> []</t>
+  </si>
+  <si>
+    <t>Representa caracteres individuales o un rango de caracteres</t>
+  </si>
+  <si>
+    <t>Compara los 2 ficheros ignorando entre matusculas y minusculas</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -h "nombre_directorio"</t>
+  </si>
+  <si>
+    <t>Muestra el espacio en Megas y Gigas que ocupa un directorio o fichero</t>
+  </si>
+  <si>
+    <t>du -h "/direccion/nombre_fichero"</t>
+  </si>
+  <si>
+    <t>todos los archivos que empiezen por "t" -----&gt; ls t*</t>
+  </si>
+  <si>
+    <t>Los archivos que empiecen b, terminen h y con 2 caracteres entre ambas----&gt; ls b??h</t>
+  </si>
+  <si>
+    <t>Todos los archivos que terminen en b o d o f o g ---&gt; ls *[bodofog]</t>
+  </si>
+  <si>
+    <t>Metacaracteres -1</t>
+  </si>
+  <si>
+    <t>Metacaracteres -2</t>
+  </si>
+  <si>
+    <t>Metacaracteres -3</t>
+  </si>
+  <si>
+    <t>Metacaracteres -4</t>
+  </si>
+  <si>
+    <t>Todos los archivos que no empiecen por p --&gt; ls -l [!p]*</t>
+  </si>
+  <si>
+    <t>Metacaracteres -5</t>
+  </si>
+  <si>
+    <t>Todos los archivos que empiecen por b ,</t>
+  </si>
+  <si>
+    <t>, les siga un carácter comprendido entre u y z,</t>
+  </si>
+  <si>
+    <t>y que termine por cualquier conjunto de caracteres.  ---&gt; ls -l b[b-z]*</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /origen  /destino</t>
+  </si>
+  <si>
+    <t>Crea un enlace duro o fisico de un elemento</t>
+  </si>
+  <si>
+    <t>ln /home/usuario/Documentos/fichero  /home/usuario/Escritorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -s /origen /destino</t>
+  </si>
+  <si>
+    <t>Crea un enlace blando o simbolico</t>
+  </si>
+  <si>
+    <t>ln -s /home/usuario/Documentos/fichero  /home/usuario/Escritorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find </t>
+  </si>
+  <si>
+    <t>Encuentra un archivo o directorio y realiza una accion</t>
+  </si>
+  <si>
+    <t>find  /home/usuario/directorio -name "zorro" -exec cat {} \;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ruta/archivo  -name "nombre" -exec comando {} \;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ruta/archivo  -user "nombre_usuario" -exec comando {} \;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ruta/archivo -iname "nombre" -exect comando {}\;</t>
+  </si>
+  <si>
+    <t>find /home/usuario/directorio -iname "zorro" -exec cat {} \;</t>
+  </si>
+  <si>
+    <t>find /home/usuario/directorio -user alumno -exec cp {} /home/alumno/animales \;</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -cvf archivo.tar archivo archivo archivo archivo</t>
+  </si>
+  <si>
+    <t>Empaqueta archivos en uno</t>
+  </si>
+  <si>
+    <t>tar -cvf mascotas.tar perro gato loro conejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -tvf archivo.tar</t>
+  </si>
+  <si>
+    <t>visualiza el contenido de un archivo empaquetado</t>
+  </si>
+  <si>
+    <t>tar -tvf mascotas.tar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -xvf archivo.tar -C destino</t>
+  </si>
+  <si>
+    <t>Extrae los archivos empaquetados</t>
+  </si>
+  <si>
+    <t>tar -xvf mascotas.tar /home/usuario/animales_domesticos</t>
+  </si>
+  <si>
+    <t>gzip</t>
+  </si>
+  <si>
+    <t>Comprime archivos, desaparece el archivo original</t>
+  </si>
+  <si>
+    <t>gzip esponja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gzip </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -l archivo.gz</t>
+  </si>
+  <si>
+    <t>Visualiza el contenido del archivo comprimido</t>
+  </si>
+  <si>
+    <t>gzip -l esponja.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -d archivo.gz</t>
+  </si>
+  <si>
+    <t>gzip -d esponja.gz</t>
+  </si>
+  <si>
+    <t>Descomprime el archivo, desaparece el archivo comprimido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zip </t>
+  </si>
+  <si>
+    <t>nombre_que_queremos_archivo.zip archivo_a_comprimir</t>
+  </si>
+  <si>
+    <t>Comprime archivos respetando el original (no instalado por defecto)</t>
+  </si>
+  <si>
+    <t>zip esponja_comprimida.zip esponja</t>
+  </si>
+  <si>
+    <t>unzip</t>
+  </si>
+  <si>
+    <t>Visualiza el contenido del archivo comprimido.zip</t>
+  </si>
+  <si>
+    <t>unzip -v esponja_comprimida.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unzip </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -v nombre_archivo_comprimido.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -d archivo_comprimido.zip /directorio_destino</t>
+  </si>
+  <si>
+    <t>Descomprime el archivo, respetando el archivo comprimido</t>
+  </si>
+  <si>
+    <t>unzip -d esponja_comprimida.zip /home/usuario/cocina</t>
+  </si>
+  <si>
+    <t>bzip2</t>
+  </si>
+  <si>
+    <t>archivo</t>
+  </si>
+  <si>
+    <t>bzip esponja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -v nombre_archivo_comprimido.bz2</t>
+  </si>
+  <si>
+    <t>Visualiza el contenido del archivo comprimido.bz2</t>
+  </si>
+  <si>
+    <t>bzip -v esponja_comprimida.gz2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -d nombre_archivo_comprimido.bz2</t>
+  </si>
+  <si>
+    <t>Desomprime el archivo, desaparece el archivo comprimido</t>
+  </si>
+  <si>
+    <t>bzip -d esponja_comprimida.bz2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -zcvf nombre_que_queremo.tar.gz archivos_origen</t>
+  </si>
+  <si>
+    <t>Empaqueta y comprime archivos, respetando los originales</t>
+  </si>
+  <si>
+    <t>tar -zcvf esponja_comprimida.tar.gz esponja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ztvf nombre_archivo_comprimido.tar.gz</t>
+  </si>
+  <si>
+    <t>visualiza el contenido del archivo comprimido</t>
+  </si>
+  <si>
+    <t>tar -ztvf esponja_comprimida.tar.gz</t>
+  </si>
+  <si>
+    <t>Descomprime y desempaqueta el archivo.tar.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -zxvf nombre_archivo_comprimido.tar.gz -C destino</t>
+  </si>
+  <si>
+    <t>tar -zxvf esponja_comprimida.tar.gz -C /home/usuario/cocina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file </t>
+  </si>
+  <si>
+    <t>nombre_archivo</t>
+  </si>
+  <si>
+    <t>file nubecilla.gif</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -h "texto" archivo</t>
+  </si>
+  <si>
+    <t>no indica las propiedades del archivo</t>
+  </si>
+  <si>
+    <t>Da formato a un archivo, en este caso pone titulo</t>
+  </si>
+  <si>
+    <t>pr -h "titulos de pelicula" peliculas</t>
+  </si>
+  <si>
+    <t>Da formato a un archivo, en este caso indicamos doble espacio</t>
+  </si>
+  <si>
+    <t>pr -d peliculas ---&gt; nos muestra doble espacio entre lineas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr </t>
+  </si>
+  <si>
+    <t>pr -w  4 peliculas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -d archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -w nº archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -l nº  archivo</t>
+  </si>
+  <si>
+    <t>Da formato a un archivo, indicamos el ancho (de caracteres) de la pagina</t>
+  </si>
+  <si>
+    <t>Da formato a un archivo, indicamos la longitud de la pagina en lineas</t>
+  </si>
+  <si>
+    <t>pr -l 10 peliculas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -n archivo</t>
+  </si>
+  <si>
+    <t>Da formato a un archivo, nos enumera las lineas</t>
+  </si>
+  <si>
+    <t>pr -n peliculas</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>Nos permite ordenar el contenido de un fichero</t>
+  </si>
+  <si>
+    <t>ordenación numeria/alfabetica de un archivo</t>
+  </si>
+  <si>
+    <t>sort -n numeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -u archivo</t>
+  </si>
+  <si>
+    <t>elimina lineas repetidas</t>
+  </si>
+  <si>
+    <t>sort -u numeros</t>
+  </si>
+  <si>
+    <t>Ordena el contenido del archivo según el nº de campo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -t(separador de campo[,o:]) -k(nºcampo a ordenar) archivo</t>
+  </si>
+  <si>
+    <t>sort -t: -k2 datos personales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -t: -k2 -k4 archivo</t>
+  </si>
+  <si>
+    <t>ordena 1º por el campo 2 y luego por el campo 4º, con los : como separador</t>
+  </si>
+  <si>
+    <t>sort -t: -k2 -k4 datos personales</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>Nos permite cambiar unos caracteres por otros</t>
+  </si>
+  <si>
+    <t>cat alumnos | tr , : --&gt; en esta caso cambia las , por :</t>
+  </si>
+  <si>
+    <t>Sustituye un conjunto de caracteres repetidos por 1 solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -c conjunto1 conjunto2 archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -s conjunto1 conjunto2 archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sustituye todos los caracteres q no se especifiquen en el conjunto 1 </t>
+  </si>
+  <si>
+    <t>cat  notas_alumnos | tr -s 4,5 5,0  --&gt; cambiariamos 4,5 por 5,0 en todo el archivo</t>
+  </si>
+  <si>
+    <t>cat  notas_alumnos | tr -c 10 0 --&gt; sustituye todo lo que no sea 10 por 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -d condicion</t>
+  </si>
+  <si>
+    <t>Elimina los caracteres indicados</t>
+  </si>
+  <si>
+    <t>cat notas_alumnos | tr -d 0 --&gt; elimina los 0 del archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s/cadena1/cadena2/ archivo</t>
+  </si>
+  <si>
+    <t>Nos permite sustituir una cadena por otra</t>
+  </si>
+  <si>
+    <t>s/cadena1/cadena2/g archivo</t>
+  </si>
+  <si>
+    <t>sed s/192.168.1.50/192.168.1.45/g red--&gt; sustituye 192.168.1.50 por 192.168.1.45</t>
+  </si>
+  <si>
+    <t>sed s/192.168.1.50/192.168.1.45/ red--&gt; sustituye 192.168.1.50 por 192.168.1.45</t>
+  </si>
+  <si>
+    <t>Nor permite cambiar una cadena por otra en toda la misma linea</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>[opciones] patron  archivo</t>
+  </si>
+  <si>
+    <t>Se utiliza para buscar coincidencias en un linea</t>
+  </si>
+  <si>
+    <t>grep nera /etc/passwd</t>
+  </si>
+  <si>
+    <t>Busca coincidencias ignorando mayusculas y minusculas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -i patron /archivo</t>
+  </si>
+  <si>
+    <t>grep -i nera /etc/passwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grep </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -v patron /archivo</t>
+  </si>
+  <si>
+    <t>Devuelve las lineas que no contienen el patron</t>
+  </si>
+  <si>
+    <t>grep -v nera /etc/passwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -c patron /archivo</t>
+  </si>
+  <si>
+    <t>grep -c nera /etc/passwd</t>
+  </si>
+  <si>
+    <t>Cuenta las lineas en las que se ha encontrado el patron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -r patron /archivo</t>
+  </si>
+  <si>
+    <t>Busca de forma recursiva</t>
+  </si>
+  <si>
+    <t>grep -r nera /etc</t>
+  </si>
+  <si>
+    <t>grep "nera" /etc/passwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [opciones] "patrón"archivo</t>
+  </si>
+  <si>
+    <t>[opciones] "^patrón" archivo</t>
+  </si>
+  <si>
+    <t>Utilizaremos las comillas para buscar un patron</t>
+  </si>
+  <si>
+    <t>Busca las lineas que comienzan por la cadena indicada</t>
+  </si>
+  <si>
+    <t>grep "^nera" /etc/passwd</t>
+  </si>
+  <si>
+    <t>[opciones] "patron$" archivo</t>
+  </si>
+  <si>
+    <t>Busca las lineas que terminen con el patron indicado</t>
+  </si>
+  <si>
+    <t>grep "nera$" /etc/passwd</t>
+  </si>
+  <si>
+    <t>[opciones] ".patron" archivo</t>
+  </si>
+  <si>
+    <t>El punto representa un carácter</t>
+  </si>
+  <si>
+    <t>grep "..ra" /etc/passwd</t>
+  </si>
+  <si>
+    <t>[opciones ".*patron" archivo</t>
+  </si>
+  <si>
+    <t>El punto asterisco representa cualquier conjunto de caracteres</t>
+  </si>
+  <si>
+    <t>grep ".*ra" /etc/passwd</t>
+  </si>
+  <si>
+    <t>Operador OR</t>
+  </si>
+  <si>
+    <t>"cadena1\|cadena2"</t>
+  </si>
+  <si>
+    <t>extrae las cadenas indicadas</t>
+  </si>
+  <si>
+    <t>cat comerciales | grep -i "madrid\|valencia"</t>
+  </si>
+  <si>
+    <t>"cadena1\|espacio en blanco"</t>
+  </si>
+  <si>
+    <t>extrae las cadenas indicadas incluso cuando son lineas en blanco</t>
+  </si>
+  <si>
+    <t>car configuracion | grep  .v "^#\|^$" --&gt; muestra lineas comentadas y en blanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut </t>
+  </si>
+  <si>
+    <t>Sirve para seleccionar una o varias columnas de un fichero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -d (separadordecampo) -f(campos a extraer) archivo</t>
+  </si>
+  <si>
+    <t>cat comerciales| cut -d: -f2,3,4 --&gt; si el separador es un espacio se indicaria así ' '</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>Une distintos ficheros linea por linea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -d (separador de campo) archivo1 archivo2</t>
+  </si>
+  <si>
+    <t>paste -d: ciudades.tmp nombre.tmp</t>
+  </si>
+  <si>
+    <t>awk</t>
+  </si>
+  <si>
+    <t>cat comerciales | awk -F: '{print $3":"$2":"$4}'  --&gt; muestra ciudad:nombre:edad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -F (separador de campo) '[condicion] {orden}' archivo</t>
+  </si>
+  <si>
+    <t>Sirve para extraer informacion de un fichero en un orden exacto</t>
+  </si>
+  <si>
+    <t>Extrae informacion según el criterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awk </t>
+  </si>
+  <si>
+    <t>En este caso indicamos que si campo 4 es mayor a 30 y menor o igual a 42, muestre 1,2 y 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -F: '$3=="Barcelona" {print $1":"$2":"$4}' comerciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -F: '$4=18 {print $0}' comerciales</t>
+  </si>
+  <si>
+    <t>Podemos establecer un criterio entre 2 valores</t>
+  </si>
+  <si>
+    <t>Podemos asignarles un valor a un campo</t>
+  </si>
+  <si>
+    <t>Indicamos que le de el valor de 18 al campo 4 y que lo muestre todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -F: '$4 &gt; 30 &amp;&amp; $4 &gt;= 42 { print $1":"$2":"$3}' comerciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -F: '$4 &gt; 30 || $4 &gt;= 42 { print $1":"$2":"$3}' comerciales</t>
+  </si>
+  <si>
+    <t>En este caso indicamos que si campo 4 es mayor a 30 o menor o igual a 42, muestre 1,2 y 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -F: 'S3!="Barcelona" {print $1":"$2":"$4}' comerciales</t>
+  </si>
+  <si>
+    <t>Extrae informacion según el criterio contrario</t>
+  </si>
+  <si>
+    <t>En este caso indicamos que si el campo 3 es distinto a Barcelona,que muestre campo1,2,4</t>
+  </si>
+  <si>
+    <t>En este caso indicamos que si el campo 3 es igual a Barcelona,que muestre campo1,2,4</t>
+  </si>
+  <si>
+    <t>join -t(delim.campo) -1(campo comun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1ºarchivo) -2 (campo comun2º archivo) archivo1 archivo2</t>
+  </si>
+  <si>
+    <t>Une campos de 2 ficheros con el mismo delimitador y el mismo orden</t>
+  </si>
+  <si>
+    <t>join t: -11 -21 nombres apellidos</t>
+  </si>
+  <si>
+    <t>Muestra un listado del directorio y muestra el tamaño de los archivos en KB</t>
+  </si>
+  <si>
+    <t>ls -lh /home/usuario/Documentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -lh /ruta/directorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -lF</t>
+  </si>
+  <si>
+    <t>Muestra un listado largo en orden alfabético del contrenido del directorio</t>
+  </si>
+  <si>
+    <t>ls -lF Documentos/</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Nos muestra informacion del UID (identidicador de usuario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -u nera</t>
+  </si>
+  <si>
+    <t>Nos muestra informacion del GID (identidicador de grupo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -g nera</t>
+  </si>
+  <si>
+    <t>chmod</t>
+  </si>
+  <si>
+    <t>[opciones] permisos</t>
+  </si>
+  <si>
+    <t>echo "hola" &gt; "archivo"</t>
+  </si>
+  <si>
+    <t>Asigna permisos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chmod </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g+w "archivo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g-w archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g=w archivo</t>
+  </si>
+  <si>
+    <t>Asigna permisos de escritura de grupo al archivo de forma simbolica</t>
+  </si>
+  <si>
+    <t>Quita permisos de escritura de grupo al archivo de forma simbolica</t>
+  </si>
+  <si>
+    <t>asigna permiso de escritura al archivo de forma simbolica</t>
+  </si>
+  <si>
+    <t>746 archivo</t>
+  </si>
+  <si>
+    <t>Asigna permisos de forma numeria</t>
+  </si>
+  <si>
+    <t>7 (usuario:7=rwx) 4 (grupo:4=r--) 6 (otros=rw-)</t>
+  </si>
+  <si>
+    <t>umask</t>
+  </si>
+  <si>
+    <t>nos devuelve el valor de la máscara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umask </t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>cambia el valor de la mascara</t>
+  </si>
+  <si>
+    <t>que por defecto es 022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chgrp </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [opciones] grupo archivo</t>
+  </si>
+  <si>
+    <t>Cambia el grupo de un archivo (debemos ser propietario o del grupo)</t>
+  </si>
+  <si>
+    <t>chown</t>
+  </si>
+  <si>
+    <t>[opciones] grupo archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sticky bit </t>
+  </si>
+  <si>
+    <t>solo el propietarioa puede borrar los archivos creados</t>
+  </si>
+  <si>
+    <t>en este directorio  --&gt; damos permisos al directorio chmod 777 directorio</t>
+  </si>
+  <si>
+    <t>luego asignamos sticky bit: chmod o+t directorio</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /opt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /sbin</t>
+  </si>
+  <si>
+    <t>Almacena los comandos de Root</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /usr</t>
+  </si>
+  <si>
+    <t>Contiene las carpetas /bin /game /sbin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /var</t>
+  </si>
+  <si>
+    <t>Contiene los archivos variables del sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /var/log/syslog</t>
+  </si>
+  <si>
+    <t>Almacena los registros del sistema</t>
+  </si>
+  <si>
+    <t>Lugar donde se instalan los programas de forma manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/apt/sources.list</t>
+  </si>
+  <si>
+    <t>Almacena los repositorios</t>
+  </si>
+  <si>
+    <t>deb http://ftp.fr.debian.org/debian/ buster main contrib non-free</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #  Repositorios oficiales ----------------------------------------------------&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # Actualizaciones de seguridad --------------------------------------------&gt;</t>
+  </si>
+  <si>
+    <t>deb http://security.debian.org/debian-security buster/updates main contrib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt </t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>Actualiza la lista de repositorios</t>
+  </si>
+  <si>
+    <t>install "programa"</t>
+  </si>
+  <si>
+    <t>policy "programa"</t>
+  </si>
+  <si>
+    <t>Comprueba si tenemos el programa indicado instalado</t>
+  </si>
+  <si>
+    <t>apt update</t>
+  </si>
+  <si>
+    <t>apt policy dnsutils</t>
+  </si>
+  <si>
+    <t>apt install nslookup</t>
+  </si>
+  <si>
+    <t>full-upgrade</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>Actualiza los paquetes ya instalados</t>
+  </si>
+  <si>
+    <t>apt upgrade</t>
+  </si>
+  <si>
+    <t>Instala el programa indicado</t>
+  </si>
+  <si>
+    <t>Actualiza los programas instalados y elimina los paquetes que sean oportunos</t>
+  </si>
+  <si>
+    <t>apt full-upgrade</t>
+  </si>
+  <si>
+    <t>remove "programa"</t>
+  </si>
+  <si>
+    <t>apt remove network-manager</t>
+  </si>
+  <si>
+    <t>purge "programa"</t>
+  </si>
+  <si>
+    <t>Desinstala el programa sin eliminar los archivos de configuración</t>
+  </si>
+  <si>
+    <t>Desinstala  el programa y elimina todos sus archivos de configuración</t>
+  </si>
+  <si>
+    <t>apt purge network-manager</t>
+  </si>
+  <si>
+    <t>autoremove</t>
+  </si>
+  <si>
+    <t>Elimina los paquetes autoinstalados que ya no son necesarios</t>
+  </si>
+  <si>
+    <t>apt autoremove</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>limpia el repositorio de paquetes descargados</t>
+  </si>
+  <si>
+    <t>autoclean</t>
+  </si>
+  <si>
+    <t>limpia el repositorio de paquetes descargados obsoletos</t>
+  </si>
+  <si>
+    <t>apt clean</t>
+  </si>
+  <si>
+    <t>apt autoclean</t>
+  </si>
+  <si>
+    <t>search "programa"</t>
+  </si>
+  <si>
+    <t>Busca paquetes del programa indicado</t>
+  </si>
+  <si>
+    <t>apt search nslookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /var/lib/apt/lists</t>
+  </si>
+  <si>
+    <t>listado de los paquetes de un repositorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /var/cache/apt/archives</t>
+  </si>
+  <si>
+    <t>muestra los archivos que hay en la caché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -h /var/cache/apt/archives</t>
+  </si>
+  <si>
+    <t>Muestra el espacio que ocupa la chacé</t>
+  </si>
+  <si>
+    <t>dpkg</t>
+  </si>
+  <si>
+    <t>instala y comprueba los paquetes .deb, NO resuelve dependencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -i "nombre_paquete"</t>
+  </si>
+  <si>
+    <t>Instala un paquete .deb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -r "nombre_paquete"</t>
+  </si>
+  <si>
+    <t>Desinstala un paquete .deb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - - purge "nombre_paquete"</t>
+  </si>
+  <si>
+    <t>Borra los archivos de configuracion del paquete .deb indicado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/sources.list.d</t>
+  </si>
+  <si>
+    <t>Almacena los directorios de los repositorios de los paquetes instalados por nosotros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpkg </t>
+  </si>
+  <si>
+    <t>muestra listado de los paquetes instalados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # Repositorios BACKPORTS</t>
+  </si>
+  <si>
+    <t>deb http://deb.debian.org/debian buster-backports main</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Añadiremos en /etc/apt/sources.list</t>
+  </si>
+  <si>
+    <t>install linux - headers - $ (uname -r)</t>
+  </si>
+  <si>
+    <t>Instala las cabeceras de linux, para que los programas sepan que nucleo</t>
+  </si>
+  <si>
+    <t>linux tenemos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /var/www/html</t>
+  </si>
+  <si>
+    <t>Almacena las webs del servidor apache</t>
+  </si>
+  <si>
+    <t>gdebi</t>
+  </si>
+  <si>
+    <t>"nombre-programa"</t>
+  </si>
+  <si>
+    <t>Instala paquetes</t>
+  </si>
+  <si>
+    <t>gdebi paquete_chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/hostname</t>
+  </si>
+  <si>
+    <t>Almacena el nombre del equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/hosts</t>
+  </si>
+  <si>
+    <t>Almacena la relacion entre ip y nombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/network/interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/resolv.conf</t>
+  </si>
+  <si>
+    <t>Almacena el fichero que configura la red</t>
+  </si>
+  <si>
+    <t>Almacena el fichero que configura los dns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip </t>
+  </si>
+  <si>
+    <t>Muestra la configuracion IP</t>
+  </si>
+  <si>
+    <t>ip a</t>
+  </si>
+  <si>
+    <t>Muestra al config. DNS</t>
+  </si>
+  <si>
+    <t>libera la ip de la tarjeta de red indicada</t>
+  </si>
+  <si>
+    <t>ip a flush dev enp0s3</t>
+  </si>
+  <si>
+    <t>dhclient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -v</t>
+  </si>
+  <si>
+    <t>Asigna una IP al queipo y va mostrando lo que hace</t>
+  </si>
+  <si>
+    <t>dhclient -v</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a flush dev "nombre_tarjeta_red"</t>
+  </si>
+  <si>
+    <t>link set "nombre_tarjeta_red" down</t>
+  </si>
+  <si>
+    <t>ip link set enp0s3 down</t>
+  </si>
+  <si>
+    <t>link set "nombre_tarjeta_red" up</t>
+  </si>
+  <si>
+    <t>Desactiva la tarejta de red indicada</t>
+  </si>
+  <si>
+    <t>Activa la tarejta de red indicada</t>
+  </si>
+  <si>
+    <t>ip link set enp0s3 up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemctl </t>
+  </si>
+  <si>
+    <t>status networking.service</t>
+  </si>
+  <si>
+    <t>Muestra el estado del servicio de internet</t>
+  </si>
+  <si>
+    <t>start networking.service</t>
+  </si>
+  <si>
+    <t>Activa el servicio de internet</t>
+  </si>
+  <si>
+    <t>stop networking.service</t>
+  </si>
+  <si>
+    <t>Para el servicio de internet</t>
+  </si>
+  <si>
+    <t>restart networking.service</t>
+  </si>
+  <si>
+    <t>Reinicia el servicio de internet</t>
+  </si>
+  <si>
+    <t>lo ejecutaremos cuando modifiquemos la config</t>
+  </si>
+  <si>
+    <t>ping puerta enlace</t>
+  </si>
+  <si>
+    <t>comprobar conexión</t>
+  </si>
+  <si>
+    <t>ping a google</t>
+  </si>
+  <si>
+    <t>comprobar la conexión</t>
+  </si>
+  <si>
+    <t>nslookup</t>
+  </si>
+  <si>
+    <t>Comprueba el buen funcionamiento de los dns</t>
+  </si>
+  <si>
+    <t>herramienta dentro del paquete dnsutils</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # en UBUNTU--&gt; /etc/netplan</t>
+  </si>
+  <si>
+    <t>netplan apply</t>
+  </si>
+  <si>
+    <t>aplica la configuracion del archivo de config.</t>
+  </si>
+  <si>
+    <t>## En UBUNTU</t>
+  </si>
+  <si>
+    <t>Almacena el archivo que configura la red, si no existe el archivo lo crearemos con netplan generate</t>
+  </si>
+  <si>
+    <t>netplan generate</t>
+  </si>
+  <si>
+    <t>Genera un archivo .yaml, si no existiera</t>
+  </si>
+  <si>
+    <t>restart systemd-networkd</t>
+  </si>
+  <si>
+    <t>Reinicia la red de ubuntu</t>
+  </si>
+  <si>
+    <t>fdisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -l </t>
+  </si>
+  <si>
+    <t>Muestra informacion de todos los dispositiovs de bloque hdd, usb, cd-rom</t>
+  </si>
+  <si>
+    <t># blkid</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>Muestra info de sist. Ficheros montados, tamaño y tipos de sistema archivos</t>
+  </si>
+  <si>
+    <t>fdisk -l /dev/sdb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # fdisk</t>
+  </si>
+  <si>
+    <t>(como ROOT) Muestra los discos disponibles y particiones creadas</t>
+  </si>
+  <si>
+    <t>(como ROOT) Muestra los identificadores del disco, formato, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /dev/sdb</t>
+  </si>
+  <si>
+    <t>Abre el menu para la aprticion del disco, nos guiamos por menu de pantalla</t>
+  </si>
+  <si>
+    <t>cfdisk</t>
+  </si>
+  <si>
+    <t>Abre un meno para particionar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # mkfs.ext4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /dev/sbd1</t>
+  </si>
+  <si>
+    <t>Formatea la particion indicada en ext4</t>
+  </si>
+  <si>
+    <t>s. Ficheros: ext3, ext4, vfat (Fat32), ntfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /media</t>
+  </si>
+  <si>
+    <t>Punto de montaje de los dispositivos removibles (pendrives)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /mnt</t>
+  </si>
+  <si>
+    <t>Punto de montaje para los sitemas de ficheros temporales</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /dispositivo  /punto_de_montaje</t>
+  </si>
+  <si>
+    <t>Monta dispositivo en punto de montaje indicado (crearlo dentro de /mnt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # mount /dev/sdb1 /mnt/datos1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mount </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a </t>
+  </si>
+  <si>
+    <t>monta lo que no esta montado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -ro /dispositivo /punto_de_montaje</t>
+  </si>
+  <si>
+    <t>Monta el dispositivo en modo solo lectura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # mount -ro /dev/sdb1 /mnt/datos1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/fstab</t>
+  </si>
+  <si>
+    <t>asignamos a este archivo el UID del disco para hace un montaje permanente</t>
+  </si>
+  <si>
+    <t>umount</t>
+  </si>
+  <si>
+    <t>Desmonta el dispositivo indicado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # umount /dev/sdb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # cat /dev/sdb1 &gt; imagen.iso</t>
+  </si>
+  <si>
+    <t>Crea una imagen ISO del disco indicado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # mount  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -o loop imagen.iso /media/iso</t>
+  </si>
+  <si>
+    <t>Monta una imagen ISO en el directorio /media/iso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh </t>
+  </si>
+  <si>
+    <t>usuario@direccionipdelservidorssh</t>
+  </si>
+  <si>
+    <t>Conecta con el servidor ssh y con el usuario indicado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ssh usuario@192.168.1.45</t>
+  </si>
+  <si>
+    <t>scp</t>
+  </si>
+  <si>
+    <t>Pasa archivos de un equipo al servidor</t>
+  </si>
+  <si>
+    <t>scp /home/usuario/foto usuario@192.168.1.45:/home/usuario/fotografias</t>
+  </si>
+  <si>
+    <t>/directorio/archivo usuario@ip:/destino/archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -r /directorio usuario@ip:/destino</t>
+  </si>
+  <si>
+    <t>Pasa un directorio de un equipo al servidor</t>
+  </si>
+  <si>
+    <t>scp -r /home/usuario/examen usuario@192.168.1.45:/home/usuario/examenes</t>
+  </si>
+  <si>
+    <t>lsof +d /mnt/punto_montaje</t>
+  </si>
+  <si>
+    <t>kill -9 nºid proceso</t>
+  </si>
+  <si>
+    <t>umount /dev/sdb1 ------&gt; cone stos 3 comandos forzamos el desmontaje de un</t>
+  </si>
+  <si>
+    <t>disco que tiene un error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /home/cliente/.ssh/know_hosts</t>
+  </si>
+  <si>
+    <t>Almacena la clave publica de los servidores a los que se ha conectado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /home/cliente/.ssh/id_rsa.pub</t>
+  </si>
+  <si>
+    <t>Almacena la clave pública de un cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /home/cliente/.ssh/id_rsa</t>
+  </si>
+  <si>
+    <t>Almacena la clave privada de un cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /home/servidor/.ssh/authorized_keys</t>
+  </si>
+  <si>
+    <t>Almacena las claves publicas de clientes para conectarse sin contraseña</t>
+  </si>
+  <si>
+    <t>ssh-keygen</t>
+  </si>
+  <si>
+    <t>Crea la clave publica y privada para la conexión al servidor</t>
+  </si>
+  <si>
+    <t>ssh-copy-id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -i id_rsa.pub usuario@192.168.1.45</t>
+  </si>
+  <si>
+    <t>Transfiere la clave pública al servidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/ssh/sshd_config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editaremos este archivo en el servidor y añadiremos: PermitRootLogin yes </t>
+  </si>
+  <si>
+    <t>Para poder acceder como root por ssh</t>
+  </si>
+  <si>
+    <t>apt-get update</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -oAcquire::AllowInsecureRepositories=true</t>
+  </si>
+  <si>
+    <t>Indicamos al sisitema que el repositorio es seguro</t>
+  </si>
+  <si>
+    <t>apt-get install</t>
+  </si>
+  <si>
+    <t>deb-multimedia-keyring</t>
+  </si>
+  <si>
+    <t>Instala la clave pública del repositorio no oficial</t>
+  </si>
+  <si>
+    <t>La direccion indicada cambia según la web del paquete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /home/usuario/.bashrc</t>
+  </si>
+  <si>
+    <t>Contiene los alias que usa el usuario, y la mascara que tienen los archivos por defecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/profile</t>
+  </si>
+  <si>
+    <t>Aquí podemos establecer la umask por defecto de todos los usuarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +2159,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -527,14 +2234,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,12 +2256,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34"/>
     <cellStyle name="20% - Énfasis4" xfId="3" builtinId="42"/>
     <cellStyle name="20% - Énfasis6" xfId="4" builtinId="50"/>
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -832,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,29 +2572,29 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,40 +2615,40 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -965,18 +2675,18 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,38 +2721,35 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,6 +2788,14 @@
       </c>
       <c r="C24" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1094,16 +2809,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" customWidth="1"/>
-    <col min="4" max="4" width="125.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1130,108 +2847,108 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
         <v>130</v>
       </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1266,10 +2983,10 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,90 +2994,93 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +3096,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,10 +3118,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,69 +3154,2404 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" t="s">
+        <v>442</v>
+      </c>
+      <c r="D35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>445</v>
+      </c>
+      <c r="C39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D39" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>259</v>
+      </c>
+      <c r="B75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" t="s">
+        <v>260</v>
+      </c>
+      <c r="D75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" t="s">
+        <v>271</v>
+      </c>
+      <c r="C79" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" t="s">
+        <v>274</v>
+      </c>
+      <c r="C80" t="s">
+        <v>275</v>
+      </c>
+      <c r="D80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" t="s">
+        <v>278</v>
+      </c>
+      <c r="D81" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>295</v>
+      </c>
+      <c r="B86" t="s">
+        <v>297</v>
+      </c>
+      <c r="C86" t="s">
+        <v>298</v>
+      </c>
+      <c r="D86" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>300</v>
+      </c>
+      <c r="B87" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87" t="s">
+        <v>278</v>
+      </c>
+      <c r="D87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>300</v>
+      </c>
+      <c r="B88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>300</v>
+      </c>
+      <c r="B89" t="s">
+        <v>306</v>
+      </c>
+      <c r="C89" t="s">
+        <v>307</v>
+      </c>
+      <c r="D89" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>309</v>
+      </c>
+      <c r="B90" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" t="s">
+        <v>311</v>
+      </c>
+      <c r="D90" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>309</v>
+      </c>
+      <c r="B91" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" t="s">
+        <v>316</v>
+      </c>
+      <c r="D92" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>319</v>
+      </c>
+      <c r="B93" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" t="s">
+        <v>324</v>
+      </c>
+      <c r="D93" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>322</v>
+      </c>
+      <c r="B95" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" t="s">
+        <v>327</v>
+      </c>
+      <c r="D95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>329</v>
+      </c>
+      <c r="B96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" t="s">
+        <v>334</v>
+      </c>
+      <c r="D96" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>329</v>
+      </c>
+      <c r="B97" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" t="s">
+        <v>335</v>
+      </c>
+      <c r="D97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>322</v>
+      </c>
+      <c r="B98" t="s">
+        <v>337</v>
+      </c>
+      <c r="C98" t="s">
+        <v>338</v>
+      </c>
+      <c r="D98" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>340</v>
+      </c>
+      <c r="C99" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>340</v>
+      </c>
+      <c r="B100" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" t="s">
+        <v>342</v>
+      </c>
+      <c r="D100" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" t="s">
+        <v>345</v>
+      </c>
+      <c r="D101" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>340</v>
+      </c>
+      <c r="B102" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" t="s">
+        <v>347</v>
+      </c>
+      <c r="D102" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>340</v>
+      </c>
+      <c r="B103" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" t="s">
+        <v>351</v>
+      </c>
+      <c r="D103" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" t="s">
+        <v>354</v>
+      </c>
+      <c r="D104" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>353</v>
+      </c>
+      <c r="B105" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>353</v>
+      </c>
+      <c r="B106" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" t="s">
+        <v>359</v>
+      </c>
+      <c r="D106" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" t="s">
+        <v>362</v>
+      </c>
+      <c r="C107" t="s">
+        <v>363</v>
+      </c>
+      <c r="D107" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>365</v>
+      </c>
+      <c r="B108" t="s">
+        <v>366</v>
+      </c>
+      <c r="C108" t="s">
+        <v>367</v>
+      </c>
+      <c r="D108" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>365</v>
+      </c>
+      <c r="B109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C109" t="s">
+        <v>371</v>
+      </c>
+      <c r="D109" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>372</v>
+      </c>
+      <c r="B110" t="s">
+        <v>373</v>
+      </c>
+      <c r="C110" t="s">
+        <v>374</v>
+      </c>
+      <c r="D110" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>372</v>
+      </c>
+      <c r="B111" t="s">
+        <v>377</v>
+      </c>
+      <c r="C111" t="s">
+        <v>376</v>
+      </c>
+      <c r="D111" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>379</v>
+      </c>
+      <c r="B112" t="s">
+        <v>380</v>
+      </c>
+      <c r="C112" t="s">
+        <v>381</v>
+      </c>
+      <c r="D112" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>379</v>
+      </c>
+      <c r="B113" t="s">
+        <v>383</v>
+      </c>
+      <c r="C113" t="s">
+        <v>385</v>
+      </c>
+      <c r="D113" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>372</v>
+      </c>
+      <c r="B114" t="s">
+        <v>386</v>
+      </c>
+      <c r="C114" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>372</v>
+      </c>
+      <c r="B115" t="s">
+        <v>390</v>
+      </c>
+      <c r="C115" t="s">
+        <v>392</v>
+      </c>
+      <c r="D115" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" t="s">
+        <v>391</v>
+      </c>
+      <c r="C116" t="s">
+        <v>393</v>
+      </c>
+      <c r="D116" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>372</v>
+      </c>
+      <c r="B117" t="s">
+        <v>395</v>
+      </c>
+      <c r="C117" t="s">
+        <v>396</v>
+      </c>
+      <c r="D117" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>379</v>
+      </c>
+      <c r="B118" t="s">
+        <v>398</v>
+      </c>
+      <c r="C118" t="s">
+        <v>399</v>
+      </c>
+      <c r="D118" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>372</v>
+      </c>
+      <c r="B119" t="s">
+        <v>401</v>
+      </c>
+      <c r="C119" t="s">
+        <v>402</v>
+      </c>
+      <c r="D119" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>404</v>
+      </c>
+      <c r="B120" t="s">
+        <v>405</v>
+      </c>
+      <c r="C120" t="s">
+        <v>406</v>
+      </c>
+      <c r="D120" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>404</v>
+      </c>
+      <c r="B121" t="s">
+        <v>408</v>
+      </c>
+      <c r="C121" t="s">
+        <v>409</v>
+      </c>
+      <c r="D121" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>411</v>
+      </c>
+      <c r="B122" t="s">
+        <v>413</v>
+      </c>
+      <c r="C122" t="s">
+        <v>412</v>
+      </c>
+      <c r="D122" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>415</v>
+      </c>
+      <c r="B123" t="s">
+        <v>417</v>
+      </c>
+      <c r="C123" t="s">
+        <v>416</v>
+      </c>
+      <c r="D123" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>419</v>
+      </c>
+      <c r="B125" t="s">
+        <v>421</v>
+      </c>
+      <c r="C125" t="s">
+        <v>422</v>
+      </c>
+      <c r="D125" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>419</v>
+      </c>
+      <c r="B126" t="s">
+        <v>426</v>
+      </c>
+      <c r="C126" t="s">
+        <v>423</v>
+      </c>
+      <c r="D126" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>419</v>
+      </c>
+      <c r="B127" t="s">
+        <v>434</v>
+      </c>
+      <c r="C127" t="s">
+        <v>435</v>
+      </c>
+      <c r="D127" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>424</v>
+      </c>
+      <c r="B128" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" t="s">
+        <v>428</v>
+      </c>
+      <c r="D128" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>424</v>
+      </c>
+      <c r="B129" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" t="s">
+        <v>428</v>
+      </c>
+      <c r="D129" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" t="s">
+        <v>427</v>
+      </c>
+      <c r="C130" t="s">
+        <v>429</v>
+      </c>
+      <c r="D130" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>438</v>
+      </c>
+      <c r="B131" t="s">
+        <v>439</v>
+      </c>
+      <c r="C131" t="s">
+        <v>440</v>
+      </c>
+      <c r="D131" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>448</v>
+      </c>
+      <c r="B133" t="s">
+        <v>450</v>
+      </c>
+      <c r="C133" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>448</v>
+      </c>
+      <c r="B134" t="s">
+        <v>452</v>
+      </c>
+      <c r="C134" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>453</v>
+      </c>
+      <c r="B135" t="s">
+        <v>454</v>
+      </c>
+      <c r="C135" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>457</v>
+      </c>
+      <c r="B136" t="s">
+        <v>458</v>
+      </c>
+      <c r="C136" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>453</v>
+      </c>
+      <c r="B137" t="s">
+        <v>459</v>
+      </c>
+      <c r="C137" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>453</v>
+      </c>
+      <c r="B138" t="s">
+        <v>460</v>
+      </c>
+      <c r="C138" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>457</v>
+      </c>
+      <c r="B139" t="s">
+        <v>464</v>
+      </c>
+      <c r="C139" t="s">
+        <v>465</v>
+      </c>
+      <c r="D139" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>467</v>
+      </c>
+      <c r="C140" t="s">
+        <v>468</v>
+      </c>
+      <c r="D140" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>469</v>
+      </c>
+      <c r="B141" t="s">
+        <v>470</v>
+      </c>
+      <c r="C141" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>473</v>
+      </c>
+      <c r="B142" t="s">
+        <v>474</v>
+      </c>
+      <c r="C142" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>476</v>
+      </c>
+      <c r="B143" t="s">
+        <v>477</v>
+      </c>
+      <c r="C143" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>478</v>
+      </c>
+      <c r="B144" t="s">
+        <v>479</v>
+      </c>
+      <c r="C144" t="s">
+        <v>480</v>
+      </c>
+      <c r="D144" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>499</v>
+      </c>
+      <c r="B146" t="s">
+        <v>509</v>
+      </c>
+      <c r="C146" t="s">
+        <v>510</v>
+      </c>
+      <c r="D146" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>499</v>
+      </c>
+      <c r="B147" t="s">
+        <v>508</v>
+      </c>
+      <c r="C147" t="s">
+        <v>513</v>
+      </c>
+      <c r="D147" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>499</v>
+      </c>
+      <c r="B148" t="s">
+        <v>500</v>
+      </c>
+      <c r="C148" t="s">
+        <v>501</v>
+      </c>
+      <c r="D148" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>499</v>
+      </c>
+      <c r="B149" t="s">
+        <v>503</v>
+      </c>
+      <c r="C149" t="s">
+        <v>504</v>
+      </c>
+      <c r="D149" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>499</v>
+      </c>
+      <c r="B150" t="s">
+        <v>502</v>
+      </c>
+      <c r="C150" t="s">
+        <v>512</v>
+      </c>
+      <c r="D150" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>499</v>
+      </c>
+      <c r="B151" t="s">
+        <v>515</v>
+      </c>
+      <c r="C151" t="s">
+        <v>518</v>
+      </c>
+      <c r="D151" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>499</v>
+      </c>
+      <c r="B152" t="s">
+        <v>517</v>
+      </c>
+      <c r="C152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D152" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>499</v>
+      </c>
+      <c r="B153" t="s">
+        <v>521</v>
+      </c>
+      <c r="C153" t="s">
+        <v>522</v>
+      </c>
+      <c r="D153" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>499</v>
+      </c>
+      <c r="B154" t="s">
+        <v>524</v>
+      </c>
+      <c r="C154" t="s">
+        <v>525</v>
+      </c>
+      <c r="D154" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>499</v>
+      </c>
+      <c r="B155" t="s">
+        <v>526</v>
+      </c>
+      <c r="C155" t="s">
+        <v>527</v>
+      </c>
+      <c r="D155" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>499</v>
+      </c>
+      <c r="B156" t="s">
+        <v>530</v>
+      </c>
+      <c r="C156" t="s">
+        <v>531</v>
+      </c>
+      <c r="D156" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>688</v>
+      </c>
+      <c r="B157" t="s">
+        <v>689</v>
+      </c>
+      <c r="C157" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>691</v>
+      </c>
+      <c r="B158" t="s">
+        <v>692</v>
+      </c>
+      <c r="C158" t="s">
+        <v>693</v>
+      </c>
+      <c r="D158" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>537</v>
+      </c>
+      <c r="B159" t="s">
+        <v>538</v>
+      </c>
+      <c r="C159" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>540</v>
+      </c>
+      <c r="C160" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>540</v>
+      </c>
+      <c r="B161" t="s">
+        <v>542</v>
+      </c>
+      <c r="C161" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>540</v>
+      </c>
+      <c r="B162" t="s">
+        <v>544</v>
+      </c>
+      <c r="C162" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>540</v>
+      </c>
+      <c r="B163" t="s">
+        <v>546</v>
+      </c>
+      <c r="C163" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>550</v>
+      </c>
+      <c r="B164" t="s">
+        <v>66</v>
+      </c>
+      <c r="C164" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>560</v>
+      </c>
+      <c r="B165" t="s">
+        <v>561</v>
+      </c>
+      <c r="C165" t="s">
+        <v>562</v>
+      </c>
+      <c r="D165" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>499</v>
+      </c>
+      <c r="B166" t="s">
+        <v>555</v>
+      </c>
+      <c r="C166" t="s">
+        <v>556</v>
+      </c>
+      <c r="D166" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>572</v>
+      </c>
+      <c r="B168" t="s">
+        <v>99</v>
+      </c>
+      <c r="C168" t="s">
+        <v>573</v>
+      </c>
+      <c r="D168" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>572</v>
+      </c>
+      <c r="B169" t="s">
+        <v>101</v>
+      </c>
+      <c r="C169" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>572</v>
+      </c>
+      <c r="B170" t="s">
+        <v>582</v>
+      </c>
+      <c r="C170" t="s">
+        <v>576</v>
+      </c>
+      <c r="D170" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>578</v>
+      </c>
+      <c r="B171" t="s">
+        <v>579</v>
+      </c>
+      <c r="C171" t="s">
+        <v>580</v>
+      </c>
+      <c r="D171" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>572</v>
+      </c>
+      <c r="B172" t="s">
+        <v>583</v>
+      </c>
+      <c r="C172" t="s">
+        <v>586</v>
+      </c>
+      <c r="D172" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>572</v>
+      </c>
+      <c r="B173" t="s">
+        <v>585</v>
+      </c>
+      <c r="C173" t="s">
+        <v>587</v>
+      </c>
+      <c r="D173" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>589</v>
+      </c>
+      <c r="B174" t="s">
+        <v>590</v>
+      </c>
+      <c r="C174" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>589</v>
+      </c>
+      <c r="B175" t="s">
+        <v>592</v>
+      </c>
+      <c r="C175" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>589</v>
+      </c>
+      <c r="B176" t="s">
+        <v>594</v>
+      </c>
+      <c r="C176" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>589</v>
+      </c>
+      <c r="B177" t="s">
+        <v>596</v>
+      </c>
+      <c r="C177" t="s">
+        <v>597</v>
+      </c>
+      <c r="D177" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>599</v>
+      </c>
+      <c r="C178" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>601</v>
+      </c>
+      <c r="C179" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>603</v>
+      </c>
+      <c r="C180" t="s">
+        <v>604</v>
+      </c>
+      <c r="D180" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>611</v>
+      </c>
+      <c r="C182" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>607</v>
+      </c>
+      <c r="C183" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>589</v>
+      </c>
+      <c r="B184" t="s">
+        <v>613</v>
+      </c>
+      <c r="C184" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>622</v>
+      </c>
+      <c r="B186" t="s">
+        <v>616</v>
+      </c>
+      <c r="C186" t="s">
+        <v>623</v>
+      </c>
+      <c r="D186" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>618</v>
+      </c>
+      <c r="C188" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>619</v>
+      </c>
+      <c r="B189" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>615</v>
+      </c>
+      <c r="B190" t="s">
+        <v>625</v>
+      </c>
+      <c r="C190" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>627</v>
+      </c>
+      <c r="C191" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>629</v>
+      </c>
+      <c r="B192" t="s">
+        <v>630</v>
+      </c>
+      <c r="C192" t="s">
+        <v>631</v>
+      </c>
+      <c r="D192" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>637</v>
+      </c>
+      <c r="B194" t="s">
+        <v>638</v>
+      </c>
+      <c r="C194" t="s">
+        <v>639</v>
+      </c>
+      <c r="D194" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>637</v>
+      </c>
+      <c r="B195" t="s">
+        <v>644</v>
+      </c>
+      <c r="C195" t="s">
+        <v>645</v>
+      </c>
+      <c r="D195" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>641</v>
+      </c>
+      <c r="B196" t="s">
+        <v>642</v>
+      </c>
+      <c r="C196" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>649</v>
+      </c>
+      <c r="B197" t="s">
+        <v>638</v>
+      </c>
+      <c r="C197" t="s">
+        <v>650</v>
+      </c>
+      <c r="D197" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>668</v>
+      </c>
+      <c r="B198" t="s">
+        <v>669</v>
+      </c>
+      <c r="C198" t="s">
+        <v>670</v>
+      </c>
+      <c r="D198" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>652</v>
+      </c>
+      <c r="C199" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>654</v>
+      </c>
+      <c r="B200" t="s">
+        <v>655</v>
+      </c>
+      <c r="C200" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>657</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C202" t="s">
+        <v>659</v>
+      </c>
+      <c r="D202" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>661</v>
+      </c>
+      <c r="B203" t="s">
+        <v>664</v>
+      </c>
+      <c r="C203" t="s">
+        <v>662</v>
+      </c>
+      <c r="D203" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>661</v>
+      </c>
+      <c r="B204" t="s">
+        <v>665</v>
+      </c>
+      <c r="C204" t="s">
+        <v>666</v>
+      </c>
+      <c r="D204" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>680</v>
+      </c>
+      <c r="C205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>682</v>
+      </c>
+      <c r="B206" t="s">
+        <v>683</v>
+      </c>
+      <c r="C206" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D33">
     <sortCondition ref="A1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="B202" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="95" customWidth="1"/>
-    <col min="4" max="4" width="68.28515625" customWidth="1"/>
+    <col min="1" max="1" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
+    <col min="3" max="3" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="B2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>606</v>
+      </c>
+      <c r="B19" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>633</v>
+      </c>
+      <c r="B21" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>647</v>
+      </c>
+      <c r="B23" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>672</v>
+      </c>
+      <c r="B25" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>674</v>
+      </c>
+      <c r="B26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>676</v>
+      </c>
+      <c r="B27" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>678</v>
+      </c>
+      <c r="B28" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>685</v>
+      </c>
+      <c r="B29" t="s">
+        <v>686</v>
+      </c>
+      <c r="C29" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>695</v>
+      </c>
+      <c r="B31" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>697</v>
+      </c>
+      <c r="B32" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>